--- a/plantas.xlsx
+++ b/plantas.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26611"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8198858E-93C3-436F-A2F8-6363EE07D318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B31610A-9378-4F1C-9328-D6F2592B856D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arboles" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="137">
   <si>
     <t>ID</t>
   </si>
@@ -75,6 +97,9 @@
     <t>Area Promedio (en m2)</t>
   </si>
   <si>
+    <t>Consumo por metro2</t>
+  </si>
+  <si>
     <t>Acer japonicus</t>
   </si>
   <si>
@@ -276,13 +301,19 @@
     <t xml:space="preserve"> m3 por semana por metro cuadrado de planta (VERANO)</t>
   </si>
   <si>
-    <t xml:space="preserve"> litros por semana por metro cuadrado (VERANO)</t>
+    <t>litros por semana por metro cuadrado (VERANO)</t>
+  </si>
+  <si>
+    <t>m3 por arbusto [diario] (VERANO)</t>
   </si>
   <si>
     <t>m3 por semana por metro cuadrado (INVIERNO)</t>
   </si>
   <si>
     <t>litros por semana por metro cuadrado (INVIERNO)</t>
+  </si>
+  <si>
+    <t>m3  por arbusto [diario] (INVIERNO)</t>
   </si>
   <si>
     <t>precio instalar 1 planta</t>
@@ -439,6 +470,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -496,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -514,6 +549,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -829,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -848,7 +885,7 @@
     <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="67.5" customHeight="1">
+    <row r="1" spans="1:18" ht="67.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -895,17 +932,19 @@
       <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="Q1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <f>E2*0.075</f>
@@ -923,19 +962,19 @@
         <v>2E-3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2">
         <v>39300</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2">
         <v>8695</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2">
         <f>K2+I2</f>
@@ -945,22 +984,30 @@
         <v>281088</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P2">
         <f>(D2/2)^2*PI()*9</f>
         <v>2.5446900494077327</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="Q2">
+        <f>F2/P2</f>
+        <v>1.9648758406406831E-4</v>
+      </c>
+      <c r="R2">
+        <f>G2/P2</f>
+        <v>7.8595033625627325E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <f>E3*0.075</f>
@@ -978,19 +1025,19 @@
         <v>0.01</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3">
         <v>25413</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>10621</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3">
         <f>K3+I3</f>
@@ -1000,25 +1047,33 @@
         <v>614524</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3">
         <f>(D3/2)^2*PI()*9</f>
         <v>15.904312808798327</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q21" si="0">F3/P3</f>
+        <v>3.1438013450250935E-4</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R21" si="1">G3/P3</f>
+        <v>6.2876026900501869E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D3:D21" si="0">E4*0.075</f>
+        <f t="shared" ref="D3:D21" si="2">E4*0.075</f>
         <v>0.6</v>
       </c>
       <c r="E4">
@@ -1033,19 +1088,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4">
         <v>14000</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>8695</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M4">
         <f>K4+I4</f>
@@ -1055,25 +1110,33 @@
         <v>281088</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P4">
         <f>(D4/2)^2*PI()*9</f>
         <v>2.5446900494077327</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>1.964875840640683E-3</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>5.8946275219220485E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="E5">
@@ -1091,13 +1154,13 @@
         <v>55000</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5">
         <v>8695</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M5">
         <f>K5+I5</f>
@@ -1107,25 +1170,33 @@
         <v>281088</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P5">
         <f>(D5/2)^2*PI()*9</f>
         <v>0.63617251235193317</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>7.8595033625627319E-3</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>1.5719006725125464E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="E6">
@@ -1143,13 +1214,13 @@
         <v>195339</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6">
         <v>10621</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M6">
         <f>K6+I6</f>
@@ -1159,25 +1230,33 @@
         <v>614524</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P6">
         <f>(D6/2)^2*PI()*9</f>
         <v>15.904312808798327</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>6.2876026900501869E-4</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>9.4314040350752793E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="E7">
@@ -1195,13 +1274,13 @@
         <v>16990</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7">
         <v>8695</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M7">
         <f>K7+I7</f>
@@ -1211,25 +1290,33 @@
         <v>281088</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P7">
         <f>(D7/2)^2*PI()*9</f>
         <v>5.7255526111673962</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>1.746556302791719E-3</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>2.6198344541875783E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.125</v>
       </c>
       <c r="E8">
@@ -1247,13 +1334,13 @@
         <v>34136</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K8">
         <v>10621</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8">
         <f>K8+I8</f>
@@ -1263,25 +1350,33 @@
         <v>463471</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P8">
         <f>(D8/2)^2*PI()*9</f>
         <v>8.9461759549490587</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>1.1177960337866999E-3</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>1.6766940506800498E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="E9">
@@ -1299,13 +1394,13 @@
         <v>18990</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <v>8695</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9">
         <f>K9+I9</f>
@@ -1315,25 +1410,33 @@
         <v>281088</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P9">
         <f>(D9/2)^2*PI()*9</f>
         <v>2.5446900494077327</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>3.9297516812813659E-3</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>5.8946275219220485E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="E10">
@@ -1351,13 +1454,13 @@
         <v>29585</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K10">
         <v>8695</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M10">
         <f>K10+I10</f>
@@ -1367,22 +1470,30 @@
         <v>281088</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P10">
         <f>(D10/2)^2*PI()*9</f>
         <v>1.4313881527918491</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>6.9862252111668761E-3</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>1.0479337816750313E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <f>E11*0.075</f>
@@ -1403,13 +1514,13 @@
         <v>60687</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>8695</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M11">
         <f>K11+I11</f>
@@ -1419,25 +1530,32 @@
         <v>281088</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P11">
-        <f>(D11/2)^2*PI()*9</f>
         <v>0.24850488763747386</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>3.0180492912240894E-2</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>5.0300821520401495E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="E12">
@@ -1455,13 +1573,13 @@
         <v>34000</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12">
         <v>8695</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M12">
         <f>K12+I12</f>
@@ -1471,25 +1589,32 @@
         <v>281088</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P12">
-        <f>(D12/2)^2*PI()*9</f>
         <v>5.7255526111673962</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>1.746556302791719E-3</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>2.6198344541875783E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="E13">
@@ -1507,13 +1632,13 @@
         <v>55757</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13">
         <v>10621</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M13">
         <f>K13+I13</f>
@@ -1523,25 +1648,33 @@
         <v>614524</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P13">
         <f>(D13/2)^2*PI()*9</f>
         <v>15.904312808798327</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>3.1438013450250935E-4</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>6.2876026900501869E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.125</v>
       </c>
       <c r="E14">
@@ -1559,13 +1692,13 @@
         <v>50826</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14">
         <v>10621</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14">
         <f>K14+I14</f>
@@ -1575,25 +1708,33 @@
         <v>463471</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P14">
         <f>(D14/2)^2*PI()*9</f>
         <v>8.9461759549490587</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>5.5889801689334995E-4</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>1.1177960337866999E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.125</v>
       </c>
       <c r="E15">
@@ -1611,13 +1752,13 @@
         <v>10990</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15">
         <v>10621</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M15">
         <f>K15+I15</f>
@@ -1627,25 +1768,33 @@
         <v>463471</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P15">
         <f>(D15/2)^2*PI()*9</f>
         <v>8.9461759549490587</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>1.1177960337866999E-3</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>1.6766940506800498E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.125</v>
       </c>
       <c r="E16">
@@ -1663,13 +1812,13 @@
         <v>7500</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K16">
         <v>10621</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M16">
         <f>K16+I16</f>
@@ -1679,25 +1828,33 @@
         <v>463471</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P16">
         <f>(D16/2)^2*PI()*9</f>
         <v>8.9461759549490587</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>5.5889801689334995E-4</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>1.1177960337866999E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="E17">
@@ -1712,19 +1869,19 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I17">
         <v>23500</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K17">
         <v>10621</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M17">
         <f>K17+I17</f>
@@ -1734,25 +1891,33 @@
         <v>614524</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P17">
         <f>(D17/2)^2*PI()*9</f>
         <v>15.904312808798327</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>3.1438013450250936E-5</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>3.1438013450250936E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.125</v>
       </c>
       <c r="E18">
@@ -1767,19 +1932,19 @@
         <v>1.6E-2</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I18">
         <v>65000</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K18">
         <v>10621</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M18">
         <f>K18+I18</f>
@@ -1789,25 +1954,33 @@
         <v>463471</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P18">
         <f>(D18/2)^2*PI()*9</f>
         <v>8.9461759549490587</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>4.4711841351467995E-4</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>1.7884736540587198E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="E19">
@@ -1822,19 +1995,19 @@
         <v>1.4E-2</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I19">
         <v>46653</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K19">
         <v>10621</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M19">
         <f>K19+I19</f>
@@ -1844,25 +2017,33 @@
         <v>614524</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P19">
         <f>(D19/2)^2*PI()*9</f>
         <v>15.904312808798327</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>2.2006609415175653E-4</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>8.8026437660702612E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3499999999999999</v>
       </c>
       <c r="E20">
@@ -1877,19 +2058,19 @@
         <v>1.4E-2</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20">
         <v>14000</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K20">
         <v>10621</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M20">
         <f>K20+I20</f>
@@ -1899,25 +2080,33 @@
         <v>614524</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P20">
         <f>(D20/2)^2*PI()*9</f>
         <v>12.882493375126641</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>2.7168653598982299E-4</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>1.0867461439592919E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="E21">
@@ -1932,19 +2121,19 @@
         <v>1.4E-2</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I21">
         <v>39900</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K21">
         <v>16481</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M21">
         <f>K21+I21</f>
@@ -1954,11 +2143,29 @@
         <v>825938</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P21">
         <f>(D21/2)^2*PI()*9</f>
         <v>22.902210444669585</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>1.528236764942754E-4</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>6.1129470597710161E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="Q22">
+        <f>MAX(Q2:Q21)</f>
+        <v>3.0180492912240894E-2</v>
+      </c>
+      <c r="R22">
+        <f>MAX(R2:R21)</f>
+        <v>5.0300821520401495E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2059,25 +2266,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2085,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2">
         <f>D2+D2*0.3</f>
@@ -2104,10 +2311,10 @@
         <v>2000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" customHeight="1">
@@ -2115,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3">
         <f>D3+D3*0.3</f>
@@ -2146,130 +2353,149 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2FECB5-1588-4B2E-B019-693AD2340FAC}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="11" width="22.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="15" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="13" width="22.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="15" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="57.75" customHeight="1">
+    <row r="1" spans="1:18" ht="57.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="D1" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="E1" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" s="4" t="s">
         <v>87</v>
       </c>
+      <c r="J1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="L1" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>91</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C2">
         <f>D2*0.001</f>
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <f>F2*0.001</f>
-        <v>1E-3</v>
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <f>C2/(N2 * 7)</f>
+        <v>0</v>
       </c>
       <c r="F2">
+        <f>G2*0.001</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
         <f>D2/2</f>
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <f>8000*L2*10</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>F2/(N2*7)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>8000*N2*10</f>
         <v>8000</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2">
+      <c r="J2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2">
         <v>3000</v>
       </c>
-      <c r="J2">
-        <f>N2/(L2^2)</f>
+      <c r="L2">
+        <f>Q2/(N2^2)</f>
         <v>298999.99999999994</v>
       </c>
-      <c r="K2">
-        <f>1/L2</f>
+      <c r="M2">
+        <f>1/N2</f>
         <v>10</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>0.1</v>
       </c>
-      <c r="N2">
+      <c r="P2" t="e" cm="1">
+        <f t="array" aca="1" ref="P2" ca="1">_xludf.N</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q2">
         <v>2990</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="R2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C3">
         <f>D3*0.001</f>
@@ -2278,48 +2504,56 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3">
-        <f>F3*0.001</f>
+      <c r="E3" s="10">
+        <f t="shared" ref="E3:E22" si="0">C3/(N3 * 7)</f>
+        <v>9.5238095238095238E-4</v>
+      </c>
+      <c r="F3">
+        <f>G3*0.001</f>
         <v>1E-3</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F22" si="0">D3/2</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G22" si="1">D3/2</f>
         <v>1</v>
       </c>
-      <c r="G3">
-        <f>8000*L3*10</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H22" si="2">F3/(N3*7)</f>
+        <v>4.7619047619047619E-4</v>
+      </c>
+      <c r="I3">
+        <f>8000*N3*10</f>
         <v>24000</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3">
+      <c r="J3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3">
         <v>3000</v>
       </c>
-      <c r="J3">
-        <f>N3/(L3^2)</f>
+      <c r="L3">
+        <f>Q3/(N3^2)</f>
         <v>8333.3333333333339</v>
       </c>
-      <c r="K3">
-        <f>1/L3</f>
+      <c r="M3">
+        <f>1/N3</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>0.3</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>750</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="R3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C4">
         <f>D4*0.001</f>
@@ -2328,48 +2562,56 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4">
-        <f>F4*0.001</f>
+      <c r="E4" s="10">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571429E-4</v>
+      </c>
+      <c r="F4">
+        <f>G4*0.001</f>
         <v>1E-3</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
+      <c r="G4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G4">
-        <f>8000*L4*10</f>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>3.5714285714285714E-4</v>
+      </c>
+      <c r="I4">
+        <f>8000*N4*10</f>
         <v>32000</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4">
+      <c r="J4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4">
         <v>3000</v>
       </c>
-      <c r="J4">
-        <f>N4/(L4^2)</f>
+      <c r="L4">
+        <f>Q4/(N4^2)</f>
         <v>17499.999999999996</v>
       </c>
-      <c r="K4">
-        <f>1/L4</f>
+      <c r="M4">
+        <f>1/N4</f>
         <v>2.5</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.4</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>2800</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="R4" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C5">
         <f>D5*0.001</f>
@@ -2378,48 +2620,56 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <f>F5*0.001</f>
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F5" s="9">
+        <f>G5*0.001</f>
+        <v>0</v>
+      </c>
       <c r="G5">
-        <f>8000*L5*10</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>8000*N5*10</f>
         <v>36000</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5">
+      <c r="J5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5">
         <v>3000</v>
       </c>
-      <c r="J5">
-        <f>N5/(L5^2)</f>
+      <c r="L5">
+        <f>Q5/(N5^2)</f>
         <v>3703.7037037037035</v>
       </c>
-      <c r="K5">
-        <f>1/L5</f>
+      <c r="M5">
+        <f>1/N5</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.45</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>750</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="R5" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C6">
         <f>D6*0.001</f>
@@ -2428,48 +2678,56 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6">
-        <f>F6*0.001</f>
+      <c r="E6" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5873015873015873E-3</v>
+      </c>
+      <c r="F6">
+        <f>G6*0.001</f>
         <v>1E-3</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
+      <c r="G6">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G6">
-        <f>8000*L6*10</f>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>7.9365079365079365E-4</v>
+      </c>
+      <c r="I6">
+        <f>8000*N6*10</f>
         <v>14400</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6">
+      <c r="J6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6">
         <v>3000</v>
       </c>
-      <c r="J6">
-        <f>N6/(L6^2)</f>
+      <c r="L6">
+        <f>Q6/(N6^2)</f>
         <v>91820.987654320998</v>
       </c>
-      <c r="K6">
-        <f>1/L6</f>
+      <c r="M6">
+        <f>1/N6</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>0.18</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <v>2975</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="R6" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C7">
         <f>D7*0.001</f>
@@ -2478,48 +2736,56 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7">
-        <f>F7*0.001</f>
+      <c r="E7" s="10">
+        <f t="shared" si="0"/>
+        <v>2.5974025974025974E-3</v>
+      </c>
+      <c r="F7">
+        <f>G7*0.001</f>
         <v>1E-3</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
+      <c r="G7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G7">
-        <f>8000*L7*10</f>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>1.2987012987012987E-3</v>
+      </c>
+      <c r="I7">
+        <f>8000*N7*10</f>
         <v>8800</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7">
+      <c r="J7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7">
         <v>3000</v>
       </c>
-      <c r="J7">
-        <f>N7/(L7^2)</f>
+      <c r="L7">
+        <f>Q7/(N7^2)</f>
         <v>214876.03305785125</v>
       </c>
-      <c r="K7">
-        <f>1/L7</f>
+      <c r="M7">
+        <f>1/N7</f>
         <v>9.0909090909090917</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>0.11</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <v>2600</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="R7" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C8">
         <f>D8*0.001</f>
@@ -2528,45 +2794,53 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8">
-        <f>F8*0.001</f>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="F8">
+        <f>G8*0.001</f>
         <v>1E-3</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
+      <c r="G8">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G8">
-        <f>8000*L8*10</f>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>1.4285714285714286E-3</v>
+      </c>
+      <c r="I8">
+        <f>8000*N8*10</f>
         <v>8000</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8">
+      <c r="J8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8">
         <v>3000</v>
       </c>
-      <c r="J8">
-        <f>N8/(L8^2)</f>
+      <c r="L8">
+        <f>Q8/(N8^2)</f>
         <v>83299.999999999985</v>
       </c>
-      <c r="K8">
-        <f>1/L8</f>
+      <c r="M8">
+        <f>1/N8</f>
         <v>10</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>0.1</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
         <v>833</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C9">
         <f>D9*0.001</f>
@@ -2575,48 +2849,56 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
-        <f>F9*0.001</f>
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F9">
+        <f>G9*0.001</f>
+        <v>0</v>
+      </c>
       <c r="G9">
-        <f>8000*L9*10</f>
+        <f>D9/2</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>8000*N9*10</f>
         <v>16000</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9">
+      <c r="J9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9">
         <v>3000</v>
       </c>
-      <c r="J9">
-        <f>N9/(L9^2)</f>
+      <c r="L9">
+        <f>Q9/(N9^2)</f>
         <v>71249.999999999985</v>
       </c>
-      <c r="K9">
-        <f>1/L9</f>
+      <c r="M9">
+        <f>1/N9</f>
         <v>5</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>0.2</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <v>2850</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="R9" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C10">
         <f>D10*0.001</f>
@@ -2625,48 +2907,56 @@
       <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10">
-        <f>F10*0.001</f>
+      <c r="E10" s="10">
+        <f t="shared" si="0"/>
+        <v>5.7142857142857143E-3</v>
+      </c>
+      <c r="F10">
+        <f>G10*0.001</f>
         <v>2E-3</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
+      <c r="G10">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G10">
-        <f>8000*L10*10</f>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="I10">
+        <f>8000*N10*10</f>
         <v>8000</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I10">
+      <c r="J10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10">
         <v>3000</v>
       </c>
-      <c r="J10">
-        <f>N10/(L10^2)</f>
+      <c r="L10">
+        <f>Q10/(N10^2)</f>
         <v>74999.999999999985</v>
       </c>
-      <c r="K10">
-        <f>1/L10</f>
+      <c r="M10">
+        <f>1/N10</f>
         <v>10</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>0.1</v>
       </c>
-      <c r="N10">
+      <c r="Q10">
         <v>750</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="R10" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C11">
         <f>D11*0.001</f>
@@ -2675,48 +2965,56 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11">
-        <f>F11*0.001</f>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>1.4285714285714286E-3</v>
+      </c>
+      <c r="F11">
+        <f>G11*0.001</f>
         <v>1E-3</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
+      <c r="G11">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G11">
-        <f>8000*L11*10</f>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>7.1428571428571429E-4</v>
+      </c>
+      <c r="I11">
+        <f>8000*N11*10</f>
         <v>16000</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11">
+      <c r="J11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11">
         <v>3000</v>
       </c>
-      <c r="J11">
-        <f>N11/(L11^2)</f>
+      <c r="L11">
+        <f>Q11/(N11^2)</f>
         <v>57499.999999999985</v>
       </c>
-      <c r="K11">
-        <f>1/L11</f>
+      <c r="M11">
+        <f>1/N11</f>
         <v>5</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>0.2</v>
       </c>
-      <c r="N11">
+      <c r="Q11">
         <v>2300</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="R11" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C12">
         <f>D12*0.001</f>
@@ -2725,48 +3023,56 @@
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12">
-        <f>F12*0.001</f>
+      <c r="E12" s="10">
+        <f t="shared" si="0"/>
+        <v>5.7142857142857147E-4</v>
+      </c>
+      <c r="F12">
+        <f>G12*0.001</f>
         <v>1E-3</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
+      <c r="G12">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G12">
-        <f>8000*L12*10</f>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>2.8571428571428574E-4</v>
+      </c>
+      <c r="I12">
+        <f>8000*N12*10</f>
         <v>40000</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12">
+      <c r="J12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12">
         <v>3000</v>
       </c>
-      <c r="J12">
-        <f>N12/(L12^2)</f>
+      <c r="L12">
+        <f>Q12/(N12^2)</f>
         <v>3800</v>
       </c>
-      <c r="K12">
-        <f>1/L12</f>
+      <c r="M12">
+        <f>1/N12</f>
         <v>2</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>0.5</v>
       </c>
-      <c r="N12">
+      <c r="Q12">
         <v>950</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="R12" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C13">
         <f>D13*0.001</f>
@@ -2775,48 +3081,56 @@
       <c r="D13">
         <v>4</v>
       </c>
-      <c r="E13">
-        <f>F13*0.001</f>
+      <c r="E13" s="10">
+        <f t="shared" si="0"/>
+        <v>1.2698412698412698E-3</v>
+      </c>
+      <c r="F13">
+        <f>G13*0.001</f>
         <v>2E-3</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
+      <c r="G13">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G13">
-        <f>8000*L13*10</f>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>6.3492063492063492E-4</v>
+      </c>
+      <c r="I13">
+        <f>8000*N13*10</f>
         <v>36000</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13">
+      <c r="J13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13">
         <v>3000</v>
       </c>
-      <c r="J13">
-        <f>N13/(L13^2)</f>
+      <c r="L13">
+        <f>Q13/(N13^2)</f>
         <v>4197.5308641975307</v>
       </c>
-      <c r="K13">
-        <f>1/L13</f>
+      <c r="M13">
+        <f>1/N13</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>0.45</v>
       </c>
-      <c r="N13">
+      <c r="Q13">
         <v>850</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="R13" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C14">
         <f>D14*0.001</f>
@@ -2825,48 +3139,56 @@
       <c r="D14">
         <v>4</v>
       </c>
-      <c r="E14">
-        <f>F14*0.001</f>
+      <c r="E14" s="10">
+        <f t="shared" si="0"/>
+        <v>2.2857142857142859E-3</v>
+      </c>
+      <c r="F14">
+        <f>G14*0.001</f>
         <v>2E-3</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
+      <c r="G14">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G14">
-        <f>8000*L14*10</f>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>1.1428571428571429E-3</v>
+      </c>
+      <c r="I14">
+        <f>8000*N14*10</f>
         <v>20000</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14">
+      <c r="J14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14">
         <v>3000</v>
       </c>
-      <c r="J14">
-        <f>N14/(L14^2)</f>
+      <c r="L14">
+        <f>Q14/(N14^2)</f>
         <v>60800</v>
       </c>
-      <c r="K14">
-        <f>1/L14</f>
+      <c r="M14">
+        <f>1/N14</f>
         <v>4</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>0.25</v>
       </c>
-      <c r="N14">
+      <c r="Q14">
         <v>3800</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="R14" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C15">
         <f>D15*0.001</f>
@@ -2875,48 +3197,56 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15">
-        <f>F15*0.001</f>
+      <c r="E15" s="10">
+        <f t="shared" si="0"/>
+        <v>9.5238095238095238E-4</v>
+      </c>
+      <c r="F15">
+        <f>G15*0.001</f>
         <v>1.5E-3</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
+      <c r="G15">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="G15">
-        <f>8000*L15*10</f>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>4.7619047619047619E-4</v>
+      </c>
+      <c r="I15">
+        <f>8000*N15*10</f>
         <v>36000</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15">
+      <c r="J15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15">
         <v>3000</v>
       </c>
-      <c r="J15">
-        <f>N15/(L15^2)</f>
+      <c r="L15">
+        <f>Q15/(N15^2)</f>
         <v>11851.85185185185</v>
       </c>
-      <c r="K15">
-        <f>1/L15</f>
+      <c r="M15">
+        <f>1/N15</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>0.45</v>
       </c>
-      <c r="N15">
+      <c r="Q15">
         <v>2400</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="R15" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C16">
         <f>D16*0.001</f>
@@ -2925,48 +3255,56 @@
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16">
-        <f>F16*0.001</f>
+      <c r="E16" s="10">
+        <f t="shared" si="0"/>
+        <v>1.4285714285714286E-3</v>
+      </c>
+      <c r="F16">
+        <f>G16*0.001</f>
         <v>1E-3</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
+      <c r="G16">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G16">
-        <f>8000*L16*10</f>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>7.1428571428571429E-4</v>
+      </c>
+      <c r="I16">
+        <f>8000*N16*10</f>
         <v>16000</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16">
+      <c r="J16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16">
         <v>3000</v>
       </c>
-      <c r="J16">
-        <f>N16/(L16^2)</f>
+      <c r="L16">
+        <f>Q16/(N16^2)</f>
         <v>64999.999999999985</v>
       </c>
-      <c r="K16">
-        <f>1/L16</f>
+      <c r="M16">
+        <f>1/N16</f>
         <v>5</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>0.2</v>
       </c>
-      <c r="N16">
+      <c r="Q16">
         <v>2600</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="R16" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C17">
         <f>D17*0.001</f>
@@ -2975,48 +3313,56 @@
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17">
-        <f>F17*0.001</f>
+      <c r="E17" s="10">
+        <f t="shared" si="0"/>
+        <v>1.9047619047619048E-3</v>
+      </c>
+      <c r="F17">
+        <f>G17*0.001</f>
         <v>1E-3</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
+      <c r="G17">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G17">
-        <f>8000*L17*10</f>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>9.5238095238095238E-4</v>
+      </c>
+      <c r="I17">
+        <f>8000*N17*10</f>
         <v>12000</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17">
+      <c r="J17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17">
         <v>3000</v>
       </c>
-      <c r="J17">
-        <f>N17/(L17^2)</f>
+      <c r="L17">
+        <f>Q17/(N17^2)</f>
         <v>88888.888888888891</v>
       </c>
-      <c r="K17">
-        <f>1/L17</f>
+      <c r="M17">
+        <f>1/N17</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>0.15</v>
       </c>
-      <c r="N17">
+      <c r="Q17">
         <v>2000</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="R17" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C18">
         <f>D18*0.001</f>
@@ -3025,48 +3371,56 @@
       <c r="D18">
         <v>4</v>
       </c>
-      <c r="E18">
-        <f>F18*0.001</f>
+      <c r="E18" s="10">
+        <f t="shared" si="0"/>
+        <v>5.1948051948051948E-3</v>
+      </c>
+      <c r="F18">
+        <f>G18*0.001</f>
         <v>2E-3</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
+      <c r="G18">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G18">
-        <f>8000*L18*10</f>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>2.5974025974025974E-3</v>
+      </c>
+      <c r="I18">
+        <f>8000*N18*10</f>
         <v>8800</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I18">
+      <c r="J18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18">
         <v>3000</v>
       </c>
-      <c r="J18">
-        <f>N18/(L18^2)</f>
+      <c r="L18">
+        <f>Q18/(N18^2)</f>
         <v>123966.94214876034</v>
       </c>
-      <c r="K18">
-        <f>1/L18</f>
+      <c r="M18">
+        <f>1/N18</f>
         <v>9.0909090909090917</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>0.11</v>
       </c>
-      <c r="N18">
+      <c r="Q18">
         <v>1500</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="R18" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C19">
         <f>D19*0.001</f>
@@ -3075,48 +3429,56 @@
       <c r="D19">
         <v>4</v>
       </c>
-      <c r="E19">
-        <f>F19*0.001</f>
+      <c r="E19" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1428571428571429E-3</v>
+      </c>
+      <c r="F19">
+        <f>G19*0.001</f>
         <v>2E-3</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
+      <c r="G19">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G19">
-        <f>8000*L19*10</f>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>5.7142857142857147E-4</v>
+      </c>
+      <c r="I19">
+        <f>8000*N19*10</f>
         <v>40000</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19">
+      <c r="J19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19">
         <v>3000</v>
       </c>
-      <c r="J19">
-        <f>N19/(L19^2)</f>
+      <c r="L19">
+        <f>Q19/(N19^2)</f>
         <v>2800</v>
       </c>
-      <c r="K19">
-        <f>1/L19</f>
+      <c r="M19">
+        <f>1/N19</f>
         <v>2</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>0.5</v>
       </c>
-      <c r="N19">
+      <c r="Q19">
         <v>700</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="R19" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C20">
         <f>D20*0.001</f>
@@ -3125,48 +3487,56 @@
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="E20">
-        <f>F20*0.001</f>
+      <c r="E20" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1428571428571429E-3</v>
+      </c>
+      <c r="F20">
+        <f>G20*0.001</f>
         <v>1E-3</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
+      <c r="G20">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G20">
-        <f>8000*L20*10</f>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>5.7142857142857147E-4</v>
+      </c>
+      <c r="I20">
+        <f>8000*N20*10</f>
         <v>20000</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I20">
+      <c r="J20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20">
         <v>3000</v>
       </c>
-      <c r="J20">
-        <f>N20/(L20^2)</f>
+      <c r="L20">
+        <f>Q20/(N20^2)</f>
         <v>104000</v>
       </c>
-      <c r="K20">
-        <f>1/L20</f>
+      <c r="M20">
+        <f>1/N20</f>
         <v>4</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>0.25</v>
       </c>
-      <c r="N20">
+      <c r="Q20">
         <v>6500</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="R20" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C21">
         <f>D21*0.001</f>
@@ -3175,48 +3545,56 @@
       <c r="D21">
         <v>4</v>
       </c>
-      <c r="E21">
-        <f>F21*0.001</f>
+      <c r="E21" s="10">
+        <f t="shared" si="0"/>
+        <v>2.4844720496894411E-3</v>
+      </c>
+      <c r="F21">
+        <f>G21*0.001</f>
         <v>2E-3</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
+      <c r="G21">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G21">
-        <f>8000*L21*10</f>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>1.2422360248447205E-3</v>
+      </c>
+      <c r="I21">
+        <f>8000*N21*10</f>
         <v>18400</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21">
+      <c r="J21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21">
         <v>3000</v>
       </c>
-      <c r="J21">
-        <f>N21/(L21^2)</f>
+      <c r="L21">
+        <f>Q21/(N21^2)</f>
         <v>151228.73345935726</v>
       </c>
-      <c r="K21">
-        <f>1/L21</f>
+      <c r="M21">
+        <f>1/N21</f>
         <v>4.3478260869565215</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>0.23</v>
       </c>
-      <c r="N21">
+      <c r="Q21">
         <v>8000</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="R21" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C22">
         <f>D22*0.001</f>
@@ -3225,63 +3603,71 @@
       <c r="D22">
         <v>2</v>
       </c>
-      <c r="E22">
-        <f>F22*0.001</f>
+      <c r="E22" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1428571428571429E-3</v>
+      </c>
+      <c r="F22">
+        <f>G22*0.001</f>
         <v>1E-3</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
+      <c r="G22">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G22">
-        <f>8000*L22*10</f>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>5.7142857142857147E-4</v>
+      </c>
+      <c r="I22">
+        <f>8000*N22*10</f>
         <v>20000</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22">
+      <c r="J22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22">
         <v>3000</v>
       </c>
-      <c r="J22">
-        <f>N22/(L22^2)</f>
+      <c r="L22">
+        <f>Q22/(N22^2)</f>
         <v>76800</v>
       </c>
-      <c r="K22">
-        <f>1/L22</f>
+      <c r="M22">
+        <f>1/N22</f>
         <v>4</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>0.25</v>
       </c>
-      <c r="N22">
+      <c r="Q22">
         <v>4800</v>
       </c>
-      <c r="O22" s="1"/>
+      <c r="R22" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{715097BD-7FD7-4DF2-BD63-5FA1731F3877}"/>
-    <hyperlink ref="O3" r:id="rId2" xr:uid="{BF597EAA-1F02-4628-A989-E98E74E39098}"/>
-    <hyperlink ref="O4" r:id="rId3" xr:uid="{B439D958-FAE7-4925-A309-48FD2D44768C}"/>
-    <hyperlink ref="O5" r:id="rId4" xr:uid="{A9EE71AE-97F5-4476-9E2E-AE0565730DF7}"/>
-    <hyperlink ref="O7" r:id="rId5" xr:uid="{CF1BB4F2-7A13-41CF-B6A2-39BF7D82C772}"/>
-    <hyperlink ref="O6" r:id="rId6" location="/bolsa-bol_18" xr:uid="{11993AB8-A12A-439E-9374-6F72A8DFB667}"/>
-    <hyperlink ref="O9" r:id="rId7" xr:uid="{2DD846A2-D29B-4B59-A758-FF0D15D8B24D}"/>
-    <hyperlink ref="O10" r:id="rId8" xr:uid="{C5CE97E8-A39F-4241-AE33-D9572291DE4F}"/>
-    <hyperlink ref="O11" r:id="rId9" xr:uid="{18E06A35-FB6A-442F-A338-9213DF940BF3}"/>
-    <hyperlink ref="O12" r:id="rId10" xr:uid="{AA099A18-260F-4B82-876E-B75E320032C4}"/>
-    <hyperlink ref="O13" r:id="rId11" xr:uid="{7546B241-FCCE-431C-81F0-DD5CC3CE8EE6}"/>
-    <hyperlink ref="O15" r:id="rId12" xr:uid="{D30A8E93-E0A5-47E7-B95E-6072786C4DF7}"/>
-    <hyperlink ref="O16" r:id="rId13" xr:uid="{5C8FAE2F-8CC2-4C38-B298-4ABDC4022992}"/>
-    <hyperlink ref="O14" r:id="rId14" xr:uid="{B8801D43-202A-488D-9594-F53392125699}"/>
-    <hyperlink ref="O17" r:id="rId15" xr:uid="{331ECBF5-C448-4634-AC67-D1B4F1AD63BF}"/>
-    <hyperlink ref="O18" r:id="rId16" xr:uid="{A7B159E0-BF00-423E-ACA6-4D2E523678B7}"/>
-    <hyperlink ref="O19" r:id="rId17" xr:uid="{C8B5078F-A612-4DBF-8627-27855C0F0400}"/>
-    <hyperlink ref="O20" r:id="rId18" xr:uid="{601AD1D9-068D-4C3B-BF7D-C0B60C1D3DA4}"/>
-    <hyperlink ref="O21" r:id="rId19" xr:uid="{B1A2C101-9042-42EC-9628-5F75E4132F19}"/>
-    <hyperlink ref="H2" r:id="rId20" xr:uid="{A4C144C2-22C8-4F64-B623-780EA972C9C8}"/>
-    <hyperlink ref="H3:H22" r:id="rId21" display="https://www.habitissimo.cl/presupuesto/jardineros" xr:uid="{9465593C-1F90-43FD-A232-DC86EDFD9B29}"/>
+    <hyperlink ref="R2" r:id="rId1" xr:uid="{715097BD-7FD7-4DF2-BD63-5FA1731F3877}"/>
+    <hyperlink ref="R3" r:id="rId2" xr:uid="{BF597EAA-1F02-4628-A989-E98E74E39098}"/>
+    <hyperlink ref="R4" r:id="rId3" xr:uid="{B439D958-FAE7-4925-A309-48FD2D44768C}"/>
+    <hyperlink ref="R5" r:id="rId4" xr:uid="{A9EE71AE-97F5-4476-9E2E-AE0565730DF7}"/>
+    <hyperlink ref="R7" r:id="rId5" xr:uid="{CF1BB4F2-7A13-41CF-B6A2-39BF7D82C772}"/>
+    <hyperlink ref="R6" r:id="rId6" location="/bolsa-bol_18" xr:uid="{11993AB8-A12A-439E-9374-6F72A8DFB667}"/>
+    <hyperlink ref="R9" r:id="rId7" xr:uid="{2DD846A2-D29B-4B59-A758-FF0D15D8B24D}"/>
+    <hyperlink ref="R10" r:id="rId8" xr:uid="{C5CE97E8-A39F-4241-AE33-D9572291DE4F}"/>
+    <hyperlink ref="R11" r:id="rId9" xr:uid="{18E06A35-FB6A-442F-A338-9213DF940BF3}"/>
+    <hyperlink ref="R12" r:id="rId10" xr:uid="{AA099A18-260F-4B82-876E-B75E320032C4}"/>
+    <hyperlink ref="R13" r:id="rId11" xr:uid="{7546B241-FCCE-431C-81F0-DD5CC3CE8EE6}"/>
+    <hyperlink ref="R15" r:id="rId12" xr:uid="{D30A8E93-E0A5-47E7-B95E-6072786C4DF7}"/>
+    <hyperlink ref="R16" r:id="rId13" xr:uid="{5C8FAE2F-8CC2-4C38-B298-4ABDC4022992}"/>
+    <hyperlink ref="R14" r:id="rId14" xr:uid="{B8801D43-202A-488D-9594-F53392125699}"/>
+    <hyperlink ref="R17" r:id="rId15" xr:uid="{331ECBF5-C448-4634-AC67-D1B4F1AD63BF}"/>
+    <hyperlink ref="R18" r:id="rId16" xr:uid="{A7B159E0-BF00-423E-ACA6-4D2E523678B7}"/>
+    <hyperlink ref="R19" r:id="rId17" xr:uid="{C8B5078F-A612-4DBF-8627-27855C0F0400}"/>
+    <hyperlink ref="R20" r:id="rId18" xr:uid="{601AD1D9-068D-4C3B-BF7D-C0B60C1D3DA4}"/>
+    <hyperlink ref="R21" r:id="rId19" xr:uid="{B1A2C101-9042-42EC-9628-5F75E4132F19}"/>
+    <hyperlink ref="J2" r:id="rId20" xr:uid="{A4C144C2-22C8-4F64-B623-780EA972C9C8}"/>
+    <hyperlink ref="J3:J22" r:id="rId21" display="https://www.habitissimo.cl/presupuesto/jardineros" xr:uid="{9465593C-1F90-43FD-A232-DC86EDFD9B29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3303,10 +3689,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30.75">
       <c r="A1" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:2">
